--- a/retallack_reprocessed.xlsx
+++ b/retallack_reprocessed.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjbowen\Dropbox\HypoMirror\Soil_C_modeling\GJB_BigBendPaper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjbowen\Dropbox\HypoMirror\soilCCModern\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5900,7 +5900,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5908,13 +5908,81 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -16124,8 +16192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT3" workbookViewId="0">
-      <selection activeCell="BF3" sqref="BF3"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3:BH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16144,7 +16212,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:63" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -16396,11 +16464,11 @@
         <f ca="1">BD3-(BB3*$BG$3+$BH$3)</f>
         <v>41.871904487017915</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="2">
         <f t="array" aca="1" ref="BG3:BK8" ca="1">LINEST(BD3:BD676,BB3:BB676,TRUE, TRUE)</f>
         <v>9.2535207492140545E-2</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="3">
         <f ca="1"/>
         <v>13.367533265339922</v>
       </c>
@@ -16541,11 +16609,11 @@
         <f t="shared" ref="BF4:BF67" ca="1" si="3">BD4-(BB4*$BG$3+$BH$3)</f>
         <v>-30.097813048870897</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="4">
         <f ca="1"/>
         <v>4.5599525448746375E-3</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="5">
         <f ca="1"/>
         <v>2.1198236275700042</v>
       </c>
@@ -16692,11 +16760,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>20.902186951129103</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="4">
         <f ca="1"/>
         <v>0.37996320910533243</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="5">
         <f ca="1"/>
         <v>22.161008212295823</v>
       </c>
@@ -16843,11 +16911,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>-31.156966996827435</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="4">
         <f ca="1"/>
         <v>411.80665448957205</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="5">
         <f ca="1"/>
         <v>672</v>
       </c>
@@ -16864,7 +16932,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:63" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -16997,11 +17065,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>-40.156966996827435</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="6">
         <f ca="1"/>
         <v>202242.48344527557</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="7">
         <f ca="1"/>
         <v>330026.11151021766</v>
       </c>
@@ -17312,7 +17380,7 @@
         <v>7.5888067638255876</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:63" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -17588,11 +17656,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>25.380356965711854</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="2">
         <f t="array" aca="1" ref="BG11:BH17" ca="1">LINEST(BE3:BE676,BC3:BC676,TRUE,TRUE)</f>
         <v>0.73979687448798359</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="3">
         <f ca="1"/>
         <v>17.306559612445014</v>
       </c>
@@ -17733,11 +17801,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>15.932469415240291</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" s="4">
         <f ca="1"/>
         <v>2.4320145460697235E-2</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="5">
         <f ca="1"/>
         <v>1.7875516784646432</v>
       </c>
@@ -17878,11 +17946,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>37.245849602543814</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" s="4">
         <f ca="1"/>
         <v>0.57929571182848638</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="5">
         <f ca="1"/>
         <v>21.291558985291147</v>
       </c>
@@ -18023,16 +18091,16 @@
         <f t="shared" ca="1" si="3"/>
         <v>-3.5154181352312719</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" s="4">
         <f ca="1"/>
         <v>925.32148897431159</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" s="5">
         <f ca="1"/>
         <v>672</v>
       </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:63" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -18168,11 +18236,11 @@
         <f t="shared" ca="1" si="3"/>
         <v>6.4845818647687281</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" s="6">
         <f ca="1"/>
         <v>419476.43847465533</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" s="7">
         <f ca="1"/>
         <v>304638.08526421682</v>
       </c>
